--- a/IBD/emx/ibd_publications.xlsx
+++ b/IBD/emx/ibd_publications.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15220" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="13060" yWindow="-16000" windowWidth="25360" windowHeight="15220" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="entities" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="132">
   <si>
     <t>Please find below a few key publications of the 1000IBD project:</t>
   </si>
@@ -39,87 +39,9 @@
     <t>Drug Repositioning in Inflammatory Bowel Disease Based on Genetic Information.</t>
   </si>
   <si>
-    <r>
-      <t>Collij V, Festen EA, Alberts R,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Weersma RK.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Inflamm Bowel Dis</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. 2016 Nov;22(11):2562-2570.</t>
-    </r>
-  </si>
-  <si>
     <t>Interplay of host genetics and gut microbiota underlying the onset and clinical presentation of inflammatory bowel disease.</t>
   </si>
   <si>
-    <r>
-      <t>Imhann F, Vich Vila A, Bonder MJ, Fu J, Gevers D, Visschedijk MC, Spekhorst LM, Alberts R, Franke L, van Dullemen HM, Ter Steege RW, Huttenhower C, Dijkstra G, Xavier RJ, Festen EA, Wijmenga C, Zhernakova A,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Weersma RK.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Gut</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. 2016 Oct 8. pii: gutjnl-2016-312135. doi: 10.1136/gutjnl-2016-312135. [Epub ahead of print]</t>
-    </r>
-  </si>
-  <si>
     <t>Pooled Resequencing of 122 Ulcerative Colitis Genes in a Large Dutch Cohort Suggests Population-Specific Associations of Rare Variants in MUC2.</t>
   </si>
   <si>
@@ -132,45 +54,6 @@
     <t>Inherited determinants of Crohn's disease and ulcerative colitis phenotypes: a genetic association study.</t>
   </si>
   <si>
-    <r>
-      <t>Cleynen I, Boucher G, Jostins L, Schumm LP, Zeissig S, Ahmad T, Andersen V, Andrews JM, Annese V, Brand S, Brant SR, Cho JH, Daly MJ, Dubinsky M, Duerr RH, Ferguson LR, Franke A, Gearry RB, Goyette P, Hakonarson H, Halfvarson J, Hov JR, Huang H, Kennedy NA, Kupcinskas L, Lawrance IC, Lee JC, Satsangi J, Schreiber S, Théâtre E, van der Meulen-de Jong AE,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Weersma RK, Wilson DC; International Inflammatory Bowel Disease Genetics Consortium, Parkes M, Vermeire S, Rioux JD, Mansfield J, Silverberg MS, Radford-Smith G, McGovern DP, Barrett JC, Lees CW.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Lancet</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. 2016 Jan 9;387(10014):156-67. doi: 10.1016/S0140-6736(15)00465-1. Epub 2015 Oct 18.</t>
-    </r>
-  </si>
-  <si>
     <t>The ATG16L1-T300A allele impairs clearance of pathosymbionts in the inflamed ileal mucosa of Crohn's disease patients.</t>
   </si>
   <si>
@@ -240,9 +123,6 @@
     <t>journal</t>
   </si>
   <si>
-    <t>AUTO</t>
-  </si>
-  <si>
     <t>IBD_publications</t>
   </si>
   <si>
@@ -252,9 +132,6 @@
     <t>text</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>https://www.ncbi.nlm.nih.gov/pubmed/28658209</t>
   </si>
   <si>
@@ -280,6 +157,267 @@
   </si>
   <si>
     <t>hyperlink</t>
+  </si>
+  <si>
+    <t>Prevalence of- and risk factors for work disability in Dutch patients with inflammatory bowel disease.</t>
+  </si>
+  <si>
+    <t>Spekhorst LM, Oldenburg B, van Bodegraven AA, de Jong DJ, Imhann F, van der Meulen-de Jong AE, Pierik MJ, van der Woude JC, Dijkstra G, D'Haens G, Löwenberg M, Weersma RK, Festen EAM; Parelsnoer Institute and the Dutch Initiative on Crohn and Colitis.</t>
+  </si>
+  <si>
+    <t>PMID</t>
+  </si>
+  <si>
+    <t>BMJ Open. 2017 Nov 8;7(11):e016695. doi: 10.1136/bmjopen-2017-016695.</t>
+  </si>
+  <si>
+    <t>Cohort profile: design and first results of the Dutch IBD Biobank: a prospective, nationwide biobank of patients with inflammatory bowel disease.</t>
+  </si>
+  <si>
+    <t>Spekhorst LM, Imhann F, Festen EAM, van Bodegraven AA, de Boer NKH, Bouma G, Fidder HH, d'Haens G, Hoentjen F, Hommes DW, de Jong DJ, Löwenberg M, Maljaars PWJ, van der Meulen-de Jong AE, Oldenburg B, Pierik MJ, Ponsioen CY, Stokkers PC, Verspaget HW, Visschedijk MC, van der Woude CJ, Dijkstra G, Weersma RK; Parelsnoer Institute (PSI) and the Dutch Initiative on Crohn and Colitis (ICC).</t>
+  </si>
+  <si>
+    <t>World J Gastroenterol. 2017 Dec 14;23(46):8182-8192. doi: 10.3748/wjg.v23.i46.8182.</t>
+  </si>
+  <si>
+    <t>The Impact of Ethnicity and Country of Birth on Inflammatory Bowel Disease Phenotype: a Prospective Cohort Study.</t>
+  </si>
+  <si>
+    <t>Spekhorst LM, Severs M, de Boer NKH, Festen EAM, Fidder HH, Hoentjen F, Imhann F, de Jong DJ, van der Meulen-de Jong AE, Pierik MJ, van der Woude CJ, Dijkstra G, Ponsioen CY, Löwenberg M, Oldenburg B, Weersma RK; Parelsnoer Institute and the Dutch Initiative on Crohn and Colitis.</t>
+  </si>
+  <si>
+    <t>J Crohns Colitis. 2017 Dec 4;11(12):1463-1470. doi: 10.1093/ecco-jcc/jjx098.</t>
+  </si>
+  <si>
+    <t>Genetic association analysis identifies variants associated with disease progression in primary sclerosing cholangitis.</t>
+  </si>
+  <si>
+    <t>Alberts R, de Vries EMG, Goode EC, Jiang X, Sampaziotis F, Rombouts K, Böttcher K, Folseraas T, Weismüller TJ, Mason AL, Wang W, Alexander G, Alvaro D, Bergquist A, Björkström NK, Beuers U, Björnsson E, Boberg KM, Bowlus CL, Bragazzi MC, Carbone M, Chazouillères O, Cheung A, Dalekos G, Eaton J, Eksteen B, Ellinghaus D, Färkkilä M, Festen EAM, Floreani A, Franceschet I, Gotthardt DN, Hirschfield GM, Hoek BV, Holm K, Hohenester S, Hov JR, Imhann F, Invernizzi P, Juran BD, Lenzen H, Lieb W, Liu JZ, Marschall HU, Marzioni M, Melum E, Milkiewicz P, Müller T, Pares A, Rupp C, Rust C, Sandford RN, Schramm C, Schreiber S, Schrumpf E, Silverberg MS, Srivastava B, Sterneck M, Teufel A, Vallier L, Verheij J, Vila AV, Vries B, Zachou K; International PSC Study Group, The UK PSC Consortium, Chapman RW, Manns MP, Pinzani M, Rushbrook SM, Lazaridis KN, Franke A, Anderson CA, Karlsen TH, Ponsioen CY, Weersma RK.</t>
+  </si>
+  <si>
+    <t>Gut. 2017 Aug 4. pii: gutjnl-2016-313598. doi: 10.1136/gutjnl-2016-313598. [Epub ahead of print]</t>
+  </si>
+  <si>
+    <t>A novel prognostic model for transplant-free survival in primary sclerosing cholangitis.</t>
+  </si>
+  <si>
+    <t>de Vries EM, Wang J, Williamson KD, Leeflang MM, Boonstra K, Weersma RK, Beuers U, Chapman RW, Geskus RB, Ponsioen CY.</t>
+  </si>
+  <si>
+    <t>Gut. 2017 Jul 24. pii: gutjnl-2016-313681. doi: 10.1136/gutjnl-2016-313681. [Epub ahead of print]</t>
+  </si>
+  <si>
+    <t>Patient Age, Sex, and Inflammatory Bowel Disease Phenotype Associate With Course of Primary Sclerosing Cholangitis.</t>
+  </si>
+  <si>
+    <t>Weismüller TJ, Trivedi PJ, Bergquist A, Imam M, Lenzen H, Ponsioen CY, Holm K, Gotthardt D, Färkkilä MA, Marschall HU, Thorburn D, Weersma RK, Fevery J, Mueller T, Chazouillères O, Schulze K, Lazaridis KN, Almer S, Pereira SP, Levy C, Mason A, Naess S, Bowlus CL, Floreani A, Halilbasic E, Yimam KK, Milkiewicz P, Beuers U, Huynh DK, Pares A, Manser CN, Dalekos GN, Eksteen B, Invernizzi P, Berg CP, Kirchner GI, Sarrazin C, Zimmer V, Fabris L, Braun F, Marzioni M, Juran BD, Said K, Rupp C, Jokelainen K, Benito de Valle M, Saffioti F, Cheung A, Trauner M, Schramm C, Chapman RW, Karlsen TH, Schrumpf E, Strassburg CP, Manns MP, Lindor KD, Hirschfield GM, Hansen BE, Boberg KM; International PSC Study Group.</t>
+  </si>
+  <si>
+    <t>Gastroenterology. 2017 Jun;152(8):1975-1984.e8. doi: 10.1053/j.gastro.2017.02.038. Epub 2017 Mar 6.</t>
+  </si>
+  <si>
+    <t>The influence of proton pump inhibitors and other commonly used medication on the gut microbiota.</t>
+  </si>
+  <si>
+    <t>Imhann F, Vich Vila A, Bonder MJ, Lopez Manosalva AG, Koonen DPY, Fu J, Wijmenga C, Zhernakova A, Weersma RK.</t>
+  </si>
+  <si>
+    <t>Gut Microbes. 2017 Jul 4;8(4):351-358. doi: 10.1080/19490976.2017.1284732. Epub 2017 Jan 24.</t>
+  </si>
+  <si>
+    <t>Genome-wide association study of primary sclerosing cholangitis identifies new risk loci and quantifies the genetic relationship with inflammatory bowel disease.</t>
+  </si>
+  <si>
+    <t>Ji SG, Juran BD, Mucha S, Folseraas T, Jostins L, Melum E, Kumasaka N, Atkinson EJ, Schlicht EM, Liu JZ, Shah T, Gutierrez-Achury J, Boberg KM, Bergquist A, Vermeire S, Eksteen B, Durie PR, Farkkila M, Müller T, Schramm C, Sterneck M, Weismüller TJ, Gotthardt DN, Ellinghaus D, Braun F, Teufel A, Laudes M, Lieb W, Jacobs G, Beuers U, Weersma RK, Wijmenga C, Marschall HU, Milkiewicz P, Pares A, Kontula K, Chazouillères O, Invernizzi P, Goode E, Spiess K, Moore C, Sambrook J, Ouwehand WH, Roberts DJ, Danesh J, Floreani A, Gulamhusein AF, Eaton JE, Schreiber S, Coltescu C, Bowlus CL, Luketic VA, Odin JA, Chopra KB, Kowdley KV, Chalasani N, Manns MP, Srivastava B, Mells G, Sandford RN, Alexander G, Gaffney DJ, Chapman RW, Hirschfield GM, de Andrade M; UK-PSC Consortium; International IBD Genetics Consortium; International PSC Study Group, Rushbrook SM, Franke A, Karlsen TH, Lazaridis KN, Anderson CA.</t>
+  </si>
+  <si>
+    <t>Nat Genet. 2017 Feb;49(2):269-273. doi: 10.1038/ng.3745. Epub 2016 Dec 19.</t>
+  </si>
+  <si>
+    <t>Collij V, Festen EA, Alberts R, Weersma RK.</t>
+  </si>
+  <si>
+    <t>Inflamm Bowel Dis. 2016 Nov;22(11):2562-2570.</t>
+  </si>
+  <si>
+    <t>The effect of host genetics on the gut microbiome.</t>
+  </si>
+  <si>
+    <t>Bonder MJ, Kurilshikov A, Tigchelaar EF, Mujagic Z, Imhann F, Vila AV, Deelen P, Vatanen T, Schirmer M, Smeekens SP, Zhernakova DV, Jankipersadsing SA, Jaeger M, Oosting M, Cenit MC, Masclee AA, Swertz MA, Li Y, Kumar V, Joosten L, Harmsen H, Weersma RK, Franke L, Hofker MH, Xavier RJ, Jonkers D, Netea MG, Wijmenga C, Fu J, Zhernakova A.</t>
+  </si>
+  <si>
+    <t>Nat Genet. 2016 Nov;48(11):1407-1412. doi: 10.1038/ng.3663. Epub 2016 Oct 3.</t>
+  </si>
+  <si>
+    <t>A protein-truncating R179X variant in RNF186 confers protection against ulcerative colitis.</t>
+  </si>
+  <si>
+    <t>Rivas MA, Graham D, Sulem P, Stevens C, Desch AN, Goyette P, Gudbjartsson D, Jonsdottir I, Thorsteinsdottir U, Degenhardt F, Mucha S, Kurki MI, Li D, D'Amato M, Annese V, Vermeire S, Weersma RK, Halfvarson J, Paavola-Sakki P, Lappalainen M, Lek M, Cummings B, Tukiainen T, Haritunians T, Halme L, Koskinen LL, Ananthakrishnan AN, Luo Y, Heap GA, Visschedijk MC; UK IBD Genetics Consortium; NIDDK IBD Genetics Consortium, MacArthur DG, Neale BM, Ahmad T, Anderson CA, Brant SR, Duerr RH, Silverberg MS, Cho JH, Palotie A, Saavalainen P, Kontula K, Färkkilä M, McGovern DP, Franke A, Stefansson K, Rioux JD, Xavier RJ, Daly MJ, Barrett J, de Lane K, Edwards C, Hart A, Hawkey C, Jostins L, Kennedy N, Lamb C, Lee J, Lees C, Mansfield J, Mathew C, Mowatt C, Newman B, Nimmo E, Parkes M, Pollard M, Prescott N, Randall J, Rice D, Satsangi J, Simmons A, Tremelling M, Uhlig H, Wilson D, Abraham C, Achkar JP, Bitton A, Boucher G, Croitoru K, Fleshner P, Glas J, Kugathasan S, Limbergen JV, Milgrom R, Proctor D, Regueiro M, Schumm PL, Sharma Y, Stempak JM, Targan SR, Wang MH.</t>
+  </si>
+  <si>
+    <t>Nat Commun. 2016 Aug 9;7:12342. doi: 10.1038/ncomms12342.</t>
+  </si>
+  <si>
+    <t>Analysis of five chronic inflammatory diseases identifies 27 new associations and highlights disease-specific patterns at shared loci.</t>
+  </si>
+  <si>
+    <t>Nat Genet. 2016 May;48(5):510-8. doi: 10.1038/ng.3528. Epub 2016 Mar 14.</t>
+  </si>
+  <si>
+    <t>Lancet. 2016 Jan 9;387(10014):156-67. doi: 10.1016/S0140-6736(15)00465-1. Epub 2015 Oct 18.</t>
+  </si>
+  <si>
+    <t>Cleynen I, Boucher G, Jostins L, Schumm LP, Zeissig S, Ahmad T, Andersen V, Andrews JM, Annese V, Brand S, Brant SR, Cho JH, Daly MJ, Dubinsky M, Duerr RH, Ferguson LR, Franke A, Gearry RB, Goyette P, Hakonarson H, Halfvarson J, Hov JR, Huang H, Kennedy NA, Kupcinskas L, Lawrance IC, Lee JC, Satsangi J, Schreiber S, Théâtre E, van der Meulen-de Jong AE, Weersma RK, Wilson DC; International Inflammatory Bowel Disease Genetics Consortium, Parkes M, Vermeire S, Rioux JD, Mansfield J, Silverberg MS, Radford-Smith G, McGovern DP, Barrett JC, Lees CW.</t>
+  </si>
+  <si>
+    <t>Host-microbe interactions have shaped the genetic architecture of inflammatory bowel disease.</t>
+  </si>
+  <si>
+    <t>Jostins L, Ripke S, Weersma RK, Duerr RH, McGovern DP, Hui KY, Lee JC, Schumm LP, Sharma Y, Anderson CA, Essers J, Mitrovic M, Ning K, Cleynen I, Theatre E, Spain SL, Raychaudhuri S, Goyette P, Wei Z, Abraham C, Achkar JP, Ahmad T, Amininejad L, Ananthakrishnan AN, Andersen V, Andrews JM, Baidoo L, Balschun T, Bampton PA, Bitton A, Boucher G, Brand S, Büning C, Cohain A, Cichon S, D'Amato M, De Jong D, Devaney KL, Dubinsky M, Edwards C, Ellinghaus D, Ferguson LR, Franchimont D, Fransen K, Gearry R, Georges M, Gieger C, Glas J, Haritunians T, Hart A, Hawkey C, Hedl M, Hu X, Karlsen TH, Kupcinskas L, Kugathasan S, Latiano A, Laukens D, Lawrance IC, Lees CW, Louis E, Mahy G, Mansfield J, Morgan AR, Mowat C, Newman W, Palmieri O, Ponsioen CY, Potocnik U, Prescott NJ, Regueiro M, Rotter JI, Russell RK, Sanderson JD, Sans M, Satsangi J, Schreiber S, Simms LA, Sventoraityte J, Targan SR, Taylor KD, Tremelling M, Verspaget HW, De Vos M, Wijmenga C, Wilson DC, Winkelmann J, Xavier RJ, Zeissig S, Zhang B, Zhang CK, Zhao H; International IBD Genetics Consortium (IIBDGC), Silverberg MS, Annese V, Hakonarson H, Brant SR, Radford-Smith G, Mathew CG, Rioux JD, Schadt EE, Daly MJ, Franke A, Parkes M, Vermeire S, Barrett JC, Cho JH.</t>
+  </si>
+  <si>
+    <t>Nature. 2012 Nov 1;491(7422):119-24. doi: 10.1038/nature11582.</t>
+  </si>
+  <si>
+    <t>High-density mapping of the MHC identifies a shared role for HLA-DRB1*01:03 in inflammatory bowel diseases and heterozygous advantage in ulcerative colitis.</t>
+  </si>
+  <si>
+    <t>Goyette P, Boucher G, Mallon D, Ellinghaus E, Jostins L, Huang H, Ripke S, Gusareva ES, Annese V, Hauser SL, Oksenberg JR, Thomsen I, Leslie S; International Inflammatory Bowel Disease Genetics Consortium; Australia and New Zealand IBDGC; Belgium IBD Genetics Consortium; Italian Group for IBD Genetic Consortium; NIDDK Inflammatory Bowel Disease Genetics Consortium; United Kingdom IBDGC; Wellcome Trust Case Control Consortium; Quebec IBD Genetics Consortium, Daly MJ, Van Steen K, Duerr RH, Barrett JC, McGovern DP, Schumm LP, Traherne JA, Carrington MN, Kosmoliaptsis V, Karlsen TH, Franke A, Rioux JD.</t>
+  </si>
+  <si>
+    <t>Nat Genet. 2015 Feb;47(2):172-9. doi: 10.1038/ng.3176. Epub 2015 Jan 5.</t>
+  </si>
+  <si>
+    <t>Association between variants of PRDM1 and NDP52 and Crohn's disease, based on exome sequencing and functional studies.</t>
+  </si>
+  <si>
+    <t>Ellinghaus D, Zhang H, Zeissig S, Lipinski S, Till A, Jiang T, Stade B, Bromberg Y, Ellinghaus E, Keller A, Rivas MA, Skieceviciene J, Doncheva NT, Liu X, Liu Q, Jiang F, Forster M, Mayr G, Albrecht M, Häsler R, Boehm BO, Goodall J, Berzuini CR, Lee J, Andersen V, Vogel U, Kupcinskas L, Kayser M, Krawczak M, Nikolaus S, Weersma RK, Ponsioen CY, Sans M, Wijmenga C, Strachan DP, McArdle WL, Vermeire S, Rutgeerts P, Sanderson JD, Mathew CG, Vatn MH, Wang J, Nöthen MM, Duerr RH, Büning C, Brand S, Glas J, Winkelmann J, Illig T, Latiano A, Annese V, Halfvarson J, D'Amato M, Daly MJ, Nothnagel M, Karlsen TH, Subramani S, Rosenstiel P, Schreiber S, Parkes M, Franke A.</t>
+  </si>
+  <si>
+    <t>Gastroenterology. 2013 Aug;145(2):339-47. doi: 10.1053/j.gastro.2013.04.040. Epub 2013 Apr 25.</t>
+  </si>
+  <si>
+    <t>Three ulcerative colitis susceptibility loci are associated with primary sclerosing cholangitis and indicate a role for IL2, REL, and CARD9.</t>
+  </si>
+  <si>
+    <t>Hepatology. 2011 Jun;53(6):1977-85. doi: 10.1002/hep.24307. Epub 2011 May 2.</t>
+  </si>
+  <si>
+    <t>Functional polymorphism in IL12B promoter site is associated with ulcerative colitis.</t>
+  </si>
+  <si>
+    <t>Szperl A, Saavalainen P, Weersma RK, Lappalainen M, Paavola-Sakki P, Halme L, Färkkilä M, Turunen U, Kontula K, Ponsioen CY, Wijmenga C, van Diemen CC.</t>
+  </si>
+  <si>
+    <t>Inflamm Bowel Dis. 2011 Jun;17(6):E38-40. doi: 10.1002/ibd.21670. Epub 2011 Feb 23. No abstract available.</t>
+  </si>
+  <si>
+    <t>Imhann F, Vich Vila A, Bonder MJ, Fu J, Gevers D, Visschedijk MC, Spekhorst LM, Alberts R, Franke L, van Dullemen HM, Ter Steege RW, Huttenhower C, Dijkstra G, Xavier RJ, Festen EA, Wijmenga C, Zhernakova A, Weersma RK.</t>
+  </si>
+  <si>
+    <t>Gut. 2016 Oct 8. pii: gutjnl-2016-312135. doi: 10.1136/gutjnl-2016-312135. [Epub ahead of print]</t>
+  </si>
+  <si>
+    <t>A meta-analysis of genome-wide association scans identifies IL18RAP, PTPN2, TAGAP, and PUS10 as shared risk loci for Crohn's disease and celiac disease.</t>
+  </si>
+  <si>
+    <t>Festen EA, Goyette P, Green T, Boucher G, Beauchamp C, Trynka G, Dubois PC, Lagacé C, Stokkers PC, Hommes DW, Barisani D, Palmieri O, Annese V, van Heel DA, Weersma RK, Daly MJ, Wijmenga C, Rioux JD.</t>
+  </si>
+  <si>
+    <t>PLoS Genet. 2011 Jan 27;7(1):e1001283. doi: 10.1371/journal.pgen.1001283.</t>
+  </si>
+  <si>
+    <t>Meta-analysis identifies 29 additional ulcerative colitis risk loci, increasing the number of confirmed associations to 47.</t>
+  </si>
+  <si>
+    <t>Anderson CA, Boucher G, Lees CW, Franke A, D'Amato M, Taylor KD, Lee JC, Goyette P, Imielinski M, Latiano A, Lagacé C, Scott R, Amininejad L, Bumpstead S, Baidoo L, Baldassano RN, Barclay M, Bayless TM, Brand S, Büning C, Colombel JF, Denson LA, De Vos M, Dubinsky M, Edwards C, Ellinghaus D, Fehrmann RS, Floyd JA, Florin T, Franchimont D, Franke L, Georges M, Glas J, Glazer NL, Guthery SL, Haritunians T, Hayward NK, Hugot JP, Jobin G, Laukens D, Lawrance I, Lémann M, Levine A, Libioulle C, Louis E, McGovern DP, Milla M, Montgomery GW, Morley KI, Mowat C, Ng A, Newman W, Ophoff RA, Papi L, Palmieri O, Peyrin-Biroulet L, Panés J, Phillips A, Prescott NJ, Proctor DD, Roberts R, Russell R, Rutgeerts P, Sanderson J, Sans M, Schumm P, Seibold F, Sharma Y, Simms LA, Seielstad M, Steinhart AH, Targan SR, van den Berg LH, Vatn M, Verspaget H, Walters T, Wijmenga C, Wilson DC, Westra HJ, Xavier RJ, Zhao ZZ, Ponsioen CY, Andersen V, Torkvist L, Gazouli M, Anagnou NP, Karlsen TH, Kupcinskas L, Sventoraityte J, Mansfield JC, Kugathasan S, Silverberg MS, Halfvarson J, Rotter JI, Mathew CG, Griffiths AM, Gearry R, Ahmad T, Brant SR, Chamaillard M, Satsangi J, Cho JH, Schreiber S, Daly MJ, Barrett JC, Parkes M, Annese V, Hakonarson H, Radford-Smith G, Duerr RH, Vermeire S, Weersma RK, Rioux JD.</t>
+  </si>
+  <si>
+    <t>Nat Genet. 2011 Mar;43(3):246-52. doi: 10.1038/ng.764. Epub 2011 Feb 6. Erratum in: Nat Genet. 2011 Sep;43(9):919.</t>
+  </si>
+  <si>
+    <t>Differential association of two PTPN22 coding variants with Crohn's disease and ulcerative colitis.</t>
+  </si>
+  <si>
+    <t>Diaz-Gallo LM, Espino-Paisán L, Fransen K, Gómez-García M, van Sommeren S, Cardeña C, Rodrigo L, Mendoza JL, Taxonera C, Nieto A, Alcain G, Cueto I, López-Nevot MA, Bottini N, Barclay ML, Crusius JB, van Bodegraven AA, Wijmenga C, Ponsioen CY, Gearry RB, Roberts RL, Weersma RK, Urcelay E, Merriman TR, Alizadeh BZ, Martin J.</t>
+  </si>
+  <si>
+    <t>Inflamm Bowel Dis. 2011 Nov;17(11):2287-94. doi: 10.1002/ibd.21630. Epub 2011 Feb 1.</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/29290654</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/29122790</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/28981621</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/28779025</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/28739581</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/28274849</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/28118083</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/27992413</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/27753694</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/27802154</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/27694959</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/27503255</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/27490946</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/26974007</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/26490195</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/25253126</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/26192919</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/25559196</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/23624108</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/23128233</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/21425313</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/21351215</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/21298027</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/21297633</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/21287672</t>
   </si>
 </sst>
 </file>
@@ -295,41 +433,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF2F5496"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF575757"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF575757"/>
-      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -338,6 +445,30 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -357,43 +488,41 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="12">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -402,6 +531,9 @@
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -741,30 +873,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -779,219 +911,661 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="62" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="71" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="82.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2017</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="6">
+        <v>29290654</v>
+      </c>
+      <c r="G2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2017</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="6">
+        <v>29122790</v>
+      </c>
+      <c r="G3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2017</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="6">
+        <v>28981621</v>
+      </c>
+      <c r="G4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2017</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="6">
+        <v>28779025</v>
+      </c>
+      <c r="G5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2017</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="6">
+        <v>28739581</v>
+      </c>
+      <c r="G6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2017</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5">
+        <v>28658209</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="4">
         <v>2017</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="E8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="1">
+        <v>28274849</v>
+      </c>
+      <c r="G8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2017</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="1">
+        <v>28118083</v>
+      </c>
+      <c r="G9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2017</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="1">
+        <v>27992413</v>
+      </c>
+      <c r="G10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="8" customFormat="1">
+      <c r="A11" s="8">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="8">
+        <v>2016</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="8">
+        <v>27753694</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="8" customFormat="1">
+      <c r="A12" s="8">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3">
+      <c r="C12" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="8">
         <v>2016</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E12" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="8">
+        <v>27802154</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="8" customFormat="1">
+      <c r="A13" s="8">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="8">
+        <v>2016</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="8">
+        <v>27694959</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="8" customFormat="1">
+      <c r="A14" s="8">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="8">
+        <v>2016</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="8">
+        <v>27503255</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="8" customFormat="1">
+      <c r="A15" s="8">
+        <v>13</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="C15" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D15" s="8">
+        <v>2016</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
+      <c r="F15" s="8">
+        <v>27490946</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="8" customFormat="1">
+      <c r="A16" s="8">
+        <v>14</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="8">
         <v>2016</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E16" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="8">
+        <v>26974007</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="8" customFormat="1">
+      <c r="A17" s="8">
+        <v>15</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="C17" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="8">
+        <v>2016</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="8">
+        <v>26490195</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="8" customFormat="1">
+      <c r="A18" s="8">
+        <v>16</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C18" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
-        <v>2016</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D18" s="8">
+        <v>2015</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="F18" s="8">
+        <v>25253126</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C19" t="s">
         <v>14</v>
       </c>
-      <c r="C6">
-        <v>2016</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="D19">
+        <v>2015</v>
+      </c>
+      <c r="E19" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7">
+      <c r="F19" s="1">
+        <v>26192919</v>
+      </c>
+      <c r="G19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20">
         <v>2015</v>
       </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
+      <c r="E20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="1">
+        <v>25559196</v>
+      </c>
+      <c r="G20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="4">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="4">
+        <v>2013</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="1">
+        <v>23624108</v>
+      </c>
+      <c r="G21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="4">
         <v>20</v>
       </c>
-      <c r="C8">
-        <v>2015</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="4">
+        <v>2012</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="1">
+        <v>23128233</v>
+      </c>
+      <c r="G22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="4">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="16">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="5"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="3"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="5"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="6"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="5"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="5"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="3"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="5"/>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="7"/>
-    </row>
-    <row r="26" spans="1:1" ht="16">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="8"/>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="6"/>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="5"/>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="5"/>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="5"/>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="6"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="5"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="5"/>
+      <c r="B23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="4">
+        <v>2011</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="1">
+        <v>21425313</v>
+      </c>
+      <c r="G23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="4">
+        <v>2011</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="1">
+        <v>21351215</v>
+      </c>
+      <c r="G24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="4">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="4">
+        <v>2011</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="1">
+        <v>21298027</v>
+      </c>
+      <c r="G25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="4">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="4">
+        <v>2011</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="1">
+        <v>21297633</v>
+      </c>
+      <c r="G26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="4">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="4">
+        <v>2011</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="1">
+        <v>21287672</v>
+      </c>
+      <c r="G27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="4"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="Fine-mapping inflammatory bowel disease loci to single-variant resolution."/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -1004,10 +1578,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1016,46 +1590,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>47</v>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
+      <c r="D2" t="b">
+        <v>1</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
@@ -1063,72 +1637,86 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
         <v>40</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
         <v>41</v>
-      </c>
-      <c r="H5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1154,12 +1742,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
